--- a/Container/Data/Vehicles.xlsx
+++ b/Container/Data/Vehicles.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CF9FF-FBF1-4129-B262-530807D48EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="320" windowWidth="25360" windowHeight="15280" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Galeone" sheetId="1" r:id="rId1"/>
@@ -17,13 +23,9 @@
     <sheet name="Fregatte" sheetId="8" r:id="rId8"/>
     <sheet name="Trireme" sheetId="9" r:id="rId9"/>
     <sheet name="Karavelle" sheetId="10" r:id="rId10"/>
-    <sheet name="Sangria's Wille" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,14 +36,19 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="80">
   <si>
     <t>Waffenslotklein</t>
   </si>
@@ -281,18 +288,12 @@
   </si>
   <si>
     <t>10 Wochen</t>
-  </si>
-  <si>
-    <t>Handkanone</t>
-  </si>
-  <si>
-    <t>Balliste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,11 +353,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,33 +627,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -687,7 +688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -704,7 +705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -721,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -738,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -755,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -769,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -783,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -794,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -805,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -816,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -827,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -835,7 +836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -847,7 +848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -859,7 +860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -870,7 +871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -881,7 +882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -892,7 +893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -915,26 +916,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -969,7 +970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -986,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1144,300 +1145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>600</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>15000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <f>B2*0.12</f>
-        <v>1800</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <f>B2*0.15</f>
-        <v>2250</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>600</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>600</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17">
-        <v>600</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1459,26 +1167,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1521,7 +1229,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1553,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1569,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +1309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1613,7 +1321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1647,7 +1355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1680,26 +1388,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1753,7 +1461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1761,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1777,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1785,7 +1493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1793,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1817,7 +1525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1825,7 +1533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1837,7 +1545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1849,7 +1557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1860,7 +1568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1871,7 +1579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1904,26 +1612,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1972,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1983,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1999,7 +1707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2007,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +1723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2031,12 +1739,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2044,7 +1752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +1760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +1772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +1784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +1795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +1806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +1817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2131,26 +1839,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2185,7 +1893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2196,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2207,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2215,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2223,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2231,7 +1939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2239,7 +1947,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2255,7 +1963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2263,7 +1971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2271,7 +1979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +1987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2291,7 +1999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2303,7 +2011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2314,7 +2022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2325,7 +2033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2336,7 +2044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2358,26 +2066,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2423,7 +2131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2434,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2442,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2458,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2474,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2482,7 +2190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2198,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2498,7 +2206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2506,7 +2214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2518,7 +2226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2530,7 +2238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2541,7 +2249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2563,7 +2271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2585,26 +2293,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2639,7 +2347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2653,7 +2361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2664,7 +2372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2675,7 +2383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2686,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2694,7 +2402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2710,7 +2418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2734,7 +2442,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2742,7 +2450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2766,7 +2474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2777,7 +2485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2788,7 +2496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2799,7 +2507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2821,26 +2529,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2875,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2889,7 +2597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2903,7 +2611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2925,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2936,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2955,7 +2663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2963,7 +2671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2971,7 +2679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2979,7 +2687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2987,7 +2695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2999,7 +2707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3011,7 +2719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3022,7 +2730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3033,7 +2741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3044,7 +2752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3066,26 +2774,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3120,7 +2828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3137,7 +2845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3148,7 +2856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3170,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3178,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3186,7 +2894,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3194,7 +2902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3202,7 +2910,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3210,7 +2918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3218,7 +2926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +2934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +2946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3250,7 +2958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3261,7 +2969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3272,7 +2980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +2991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
